--- a/data/pca/factorExposure/factorExposure_2016-09-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.005769775047554811</v>
+        <v>-0.0123930652361732</v>
       </c>
       <c r="C2">
-        <v>-0.05445156922329769</v>
+        <v>0.04426587795637263</v>
       </c>
       <c r="D2">
-        <v>0.03342535592346413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06545983170060669</v>
+      </c>
+      <c r="E2">
+        <v>0.05063065122209526</v>
+      </c>
+      <c r="F2">
+        <v>0.08419514650073263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0600744117756294</v>
+        <v>-0.03069686728783526</v>
       </c>
       <c r="C3">
-        <v>-0.09323761614392892</v>
+        <v>0.08085941455151056</v>
       </c>
       <c r="D3">
-        <v>0.07952297977223996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09180506161152467</v>
+      </c>
+      <c r="E3">
+        <v>0.05856758629273159</v>
+      </c>
+      <c r="F3">
+        <v>0.01244876367404437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06049906166725614</v>
+        <v>-0.05698895097556907</v>
       </c>
       <c r="C4">
-        <v>-0.06066819718319388</v>
+        <v>0.06655067838522302</v>
       </c>
       <c r="D4">
-        <v>0.02546912928044596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06007668891826947</v>
+      </c>
+      <c r="E4">
+        <v>0.04957256883055142</v>
+      </c>
+      <c r="F4">
+        <v>0.08779270168857188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03464351759285414</v>
+        <v>-0.03358019357076111</v>
       </c>
       <c r="C6">
-        <v>-0.03768254192802447</v>
+        <v>0.03450203405588229</v>
       </c>
       <c r="D6">
-        <v>0.03084996099907943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06840822068888187</v>
+      </c>
+      <c r="E6">
+        <v>0.05930072287835934</v>
+      </c>
+      <c r="F6">
+        <v>0.07429294285875147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01809961648642066</v>
+        <v>-0.01915450943914189</v>
       </c>
       <c r="C7">
-        <v>-0.03827393223916933</v>
+        <v>0.03744709165723657</v>
       </c>
       <c r="D7">
-        <v>-0.003906293608776627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03782524116005042</v>
+      </c>
+      <c r="E7">
+        <v>0.03141282301363993</v>
+      </c>
+      <c r="F7">
+        <v>0.1102057364383964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002262163258228105</v>
+        <v>-0.003413746920363378</v>
       </c>
       <c r="C8">
-        <v>-0.02324619554607554</v>
+        <v>0.02820751210078642</v>
       </c>
       <c r="D8">
-        <v>0.03221863221751796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03603838282096625</v>
+      </c>
+      <c r="E8">
+        <v>0.04072867030959688</v>
+      </c>
+      <c r="F8">
+        <v>0.05132172495068839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03164862870694374</v>
+        <v>-0.03595078208145674</v>
       </c>
       <c r="C9">
-        <v>-0.04354701335905988</v>
+        <v>0.05248352970173002</v>
       </c>
       <c r="D9">
-        <v>0.01296634067973922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04550151516073022</v>
+      </c>
+      <c r="E9">
+        <v>0.0422753544021139</v>
+      </c>
+      <c r="F9">
+        <v>0.0928212015172806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07431470089710157</v>
+        <v>-0.1002133446390686</v>
       </c>
       <c r="C10">
-        <v>0.1927957322353679</v>
+        <v>-0.1930311753191137</v>
       </c>
       <c r="D10">
-        <v>0.004911380621435784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0005439800505507445</v>
+      </c>
+      <c r="E10">
+        <v>0.04565254251349967</v>
+      </c>
+      <c r="F10">
+        <v>0.04031692255515705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03713223743130773</v>
+        <v>-0.03556948187851373</v>
       </c>
       <c r="C11">
-        <v>-0.05533728420535208</v>
+        <v>0.05132961239638967</v>
       </c>
       <c r="D11">
-        <v>0.006469584286584083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03446114575986867</v>
+      </c>
+      <c r="E11">
+        <v>0.0050000451208343</v>
+      </c>
+      <c r="F11">
+        <v>0.06641838287859779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03393182682777346</v>
+        <v>-0.03631346772750611</v>
       </c>
       <c r="C12">
-        <v>-0.04763230047276823</v>
+        <v>0.04773695890610925</v>
       </c>
       <c r="D12">
-        <v>0.002627826258914566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02598942911938354</v>
+      </c>
+      <c r="E12">
+        <v>0.01424467667505697</v>
+      </c>
+      <c r="F12">
+        <v>0.06966443231392064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0106530442307113</v>
+        <v>-0.01129665637426884</v>
       </c>
       <c r="C13">
-        <v>-0.04131525133065293</v>
+        <v>0.04096662346049453</v>
       </c>
       <c r="D13">
-        <v>0.01826673472792038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06380100347582852</v>
+      </c>
+      <c r="E13">
+        <v>0.06132096300207714</v>
+      </c>
+      <c r="F13">
+        <v>0.1158220545349574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.005823756602618523</v>
+        <v>-0.005280465525349948</v>
       </c>
       <c r="C14">
-        <v>-0.03161928883563636</v>
+        <v>0.0300396859455459</v>
       </c>
       <c r="D14">
-        <v>-0.01555076026009493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0288343659658274</v>
+      </c>
+      <c r="E14">
+        <v>0.02616781015371991</v>
+      </c>
+      <c r="F14">
+        <v>0.09987795042971341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.00158785857495169</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003260686852947651</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003828384869894987</v>
+      </c>
+      <c r="E15">
+        <v>-0.0001974083667020865</v>
+      </c>
+      <c r="F15">
+        <v>0.002160142672494621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03393184131163118</v>
+        <v>-0.03303695559399825</v>
       </c>
       <c r="C16">
-        <v>-0.04328788975082848</v>
+        <v>0.04572057800065637</v>
       </c>
       <c r="D16">
-        <v>0.007355762521886174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0291124562011229</v>
+      </c>
+      <c r="E16">
+        <v>0.01954004454593226</v>
+      </c>
+      <c r="F16">
+        <v>0.07088008323550202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02078907941877557</v>
+        <v>-0.01547852862629743</v>
       </c>
       <c r="C19">
-        <v>-0.06140611933816546</v>
+        <v>0.05013886394263047</v>
       </c>
       <c r="D19">
-        <v>0.07181565230806324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09809852457480002</v>
+      </c>
+      <c r="E19">
+        <v>0.07845004393661545</v>
+      </c>
+      <c r="F19">
+        <v>0.09413257323386991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0127661726079527</v>
+        <v>-0.01272514992257989</v>
       </c>
       <c r="C20">
-        <v>-0.04336649486337471</v>
+        <v>0.0409960538826</v>
       </c>
       <c r="D20">
-        <v>0.01840966128152612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04133691975657073</v>
+      </c>
+      <c r="E20">
+        <v>0.05554392903050979</v>
+      </c>
+      <c r="F20">
+        <v>0.09045959074120766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.007426415498682535</v>
+        <v>-0.007262264322597069</v>
       </c>
       <c r="C21">
-        <v>-0.04652377728340334</v>
+        <v>0.04460470565188093</v>
       </c>
       <c r="D21">
-        <v>0.0352633218087458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06921592869858353</v>
+      </c>
+      <c r="E21">
+        <v>0.07318014650070304</v>
+      </c>
+      <c r="F21">
+        <v>0.1347247116942838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009769123642943737</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02297799533361494</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03448602250075854</v>
+      </c>
+      <c r="E22">
+        <v>0.0181246249942941</v>
+      </c>
+      <c r="F22">
+        <v>0.0209513174379616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001043881494699216</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02310382322236749</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0341714307261089</v>
+      </c>
+      <c r="E23">
+        <v>0.01841652064569117</v>
+      </c>
+      <c r="F23">
+        <v>0.02082183816571478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02883619511414869</v>
+        <v>-0.03250534142042658</v>
       </c>
       <c r="C24">
-        <v>-0.04865192366688827</v>
+        <v>0.05361787502108147</v>
       </c>
       <c r="D24">
-        <v>0.00334540966372797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02741494599356776</v>
+      </c>
+      <c r="E24">
+        <v>0.01699546626955938</v>
+      </c>
+      <c r="F24">
+        <v>0.07951255176163509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04221239559617508</v>
+        <v>-0.04226473140610527</v>
       </c>
       <c r="C25">
-        <v>-0.06036750926476308</v>
+        <v>0.05770073357687695</v>
       </c>
       <c r="D25">
-        <v>-0.006325563818329894</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0248830894755948</v>
+      </c>
+      <c r="E25">
+        <v>0.01145617670805884</v>
+      </c>
+      <c r="F25">
+        <v>0.0803664072761585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01166032955586303</v>
+        <v>-0.01339743026764911</v>
       </c>
       <c r="C26">
-        <v>-0.01465099999951783</v>
+        <v>0.01645601956290294</v>
       </c>
       <c r="D26">
-        <v>0.001172546410577306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0264922925249636</v>
+      </c>
+      <c r="E26">
+        <v>0.02841742069347084</v>
+      </c>
+      <c r="F26">
+        <v>0.07619373937584223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08865344195455631</v>
+        <v>-0.1348949999212481</v>
       </c>
       <c r="C28">
-        <v>0.225240892103828</v>
+        <v>-0.2422299043976994</v>
       </c>
       <c r="D28">
-        <v>0.0008668301544030447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01572758816984512</v>
+      </c>
+      <c r="E28">
+        <v>0.04688571579313267</v>
+      </c>
+      <c r="F28">
+        <v>0.05504385164896434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.007441908720223582</v>
+        <v>-0.005973729901691129</v>
       </c>
       <c r="C29">
-        <v>-0.02531567834247547</v>
+        <v>0.0259326112725618</v>
       </c>
       <c r="D29">
-        <v>-0.01600438302290901</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.022665424406184</v>
+      </c>
+      <c r="E29">
+        <v>0.02785112750803538</v>
+      </c>
+      <c r="F29">
+        <v>0.09155102615546933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0502358884393946</v>
+        <v>-0.04043061787618483</v>
       </c>
       <c r="C30">
-        <v>-0.05738867475322226</v>
+        <v>0.06475503151715592</v>
       </c>
       <c r="D30">
-        <v>0.05070702283906905</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1076414331118103</v>
+      </c>
+      <c r="E30">
+        <v>0.0396847811248608</v>
+      </c>
+      <c r="F30">
+        <v>0.1047308188731345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04968965967754262</v>
+        <v>-0.05487728634422984</v>
       </c>
       <c r="C31">
-        <v>-0.03419260833614549</v>
+        <v>0.05407683227846821</v>
       </c>
       <c r="D31">
-        <v>-0.01195469822928364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.007389960465790141</v>
+      </c>
+      <c r="E31">
+        <v>0.04902916752417054</v>
+      </c>
+      <c r="F31">
+        <v>0.08392882374924038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009223604028810381</v>
+        <v>-0.003860366581442075</v>
       </c>
       <c r="C32">
-        <v>-0.04410110900016284</v>
+        <v>0.0335455573721377</v>
       </c>
       <c r="D32">
-        <v>0.02300037394011924</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04986567184492576</v>
+      </c>
+      <c r="E32">
+        <v>0.02170027999484368</v>
+      </c>
+      <c r="F32">
+        <v>0.0744723808765783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02509764456040106</v>
+        <v>-0.02371874643341845</v>
       </c>
       <c r="C33">
-        <v>-0.05891068046695348</v>
+        <v>0.05451490882401344</v>
       </c>
       <c r="D33">
-        <v>0.03268510885743346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08199621459873338</v>
+      </c>
+      <c r="E33">
+        <v>0.0493571053593642</v>
+      </c>
+      <c r="F33">
+        <v>0.1305747306037295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04445279298819448</v>
+        <v>-0.04083305223517074</v>
       </c>
       <c r="C34">
-        <v>-0.06092316166598891</v>
+        <v>0.0635694925006289</v>
       </c>
       <c r="D34">
-        <v>-0.00269609906194963</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03507392671457833</v>
+      </c>
+      <c r="E34">
+        <v>-0.006574592982834939</v>
+      </c>
+      <c r="F34">
+        <v>0.07624082989403433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.007731360236700033</v>
+        <v>-0.01291362592488001</v>
       </c>
       <c r="C36">
-        <v>-0.01355883999548252</v>
+        <v>0.01237505102916735</v>
       </c>
       <c r="D36">
-        <v>0.0009554029730721509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02854685947467106</v>
+      </c>
+      <c r="E36">
+        <v>0.03431963148065688</v>
+      </c>
+      <c r="F36">
+        <v>0.08232118031194309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02801345364848956</v>
+        <v>-0.02407786319747299</v>
       </c>
       <c r="C38">
-        <v>-0.0298360684791926</v>
+        <v>0.02536425360075891</v>
       </c>
       <c r="D38">
-        <v>0.001000424177871196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02638437180553385</v>
+      </c>
+      <c r="E38">
+        <v>0.03291089475337341</v>
+      </c>
+      <c r="F38">
+        <v>0.06855603305240496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03978662286010037</v>
+        <v>-0.03866092895453385</v>
       </c>
       <c r="C39">
-        <v>-0.07206226286623368</v>
+        <v>0.06840059098260474</v>
       </c>
       <c r="D39">
-        <v>0.02067745503430827</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05365987633659956</v>
+      </c>
+      <c r="E39">
+        <v>0.01946808075731149</v>
+      </c>
+      <c r="F39">
+        <v>0.09317490160805797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01399844711697231</v>
+        <v>-0.01454467388302516</v>
       </c>
       <c r="C40">
-        <v>-0.03622887286969201</v>
+        <v>0.0403504212728957</v>
       </c>
       <c r="D40">
-        <v>0.03230803706442208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03866599326137658</v>
+      </c>
+      <c r="E40">
+        <v>0.06859568641748898</v>
+      </c>
+      <c r="F40">
+        <v>0.08801803713718279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008417338632976288</v>
+        <v>-0.01736168510139162</v>
       </c>
       <c r="C41">
-        <v>-0.007979288357217063</v>
+        <v>0.006261963156775442</v>
       </c>
       <c r="D41">
-        <v>0.0006964089434921822</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01734623529228175</v>
+      </c>
+      <c r="E41">
+        <v>0.03727326922299951</v>
+      </c>
+      <c r="F41">
+        <v>0.07118913345655598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001520983303827274</v>
+        <v>-0.001146666592580911</v>
       </c>
       <c r="C42">
-        <v>-0.004707471418824545</v>
+        <v>0.00250566307266994</v>
       </c>
       <c r="D42">
-        <v>0.008609843265832352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.00122722802431465</v>
+      </c>
+      <c r="E42">
+        <v>0.007250698582656289</v>
+      </c>
+      <c r="F42">
+        <v>-0.006647879733017698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03149694735537574</v>
+        <v>-0.02883468359732767</v>
       </c>
       <c r="C43">
-        <v>-0.02346394886113346</v>
+        <v>0.02121941349766242</v>
       </c>
       <c r="D43">
-        <v>0.01245652310626167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04112060230024722</v>
+      </c>
+      <c r="E43">
+        <v>0.04329407837042444</v>
+      </c>
+      <c r="F43">
+        <v>0.08548352332452069</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01661903464084348</v>
+        <v>-0.0134163309156322</v>
       </c>
       <c r="C44">
-        <v>-0.05617956712423917</v>
+        <v>0.05225580448311953</v>
       </c>
       <c r="D44">
-        <v>0.01575114306155727</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04008952613897031</v>
+      </c>
+      <c r="E44">
+        <v>0.05556242978491868</v>
+      </c>
+      <c r="F44">
+        <v>0.08978396627312062</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0004621328917308233</v>
+        <v>-0.007019138397661798</v>
       </c>
       <c r="C46">
-        <v>-0.02300164313822102</v>
+        <v>0.02544656999436811</v>
       </c>
       <c r="D46">
-        <v>-0.02086596823125301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01348931165437966</v>
+      </c>
+      <c r="E46">
+        <v>0.03357731562868085</v>
+      </c>
+      <c r="F46">
+        <v>0.1047866811589173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07976911360958314</v>
+        <v>-0.08593206048878781</v>
       </c>
       <c r="C47">
-        <v>-0.0725243689892254</v>
+        <v>0.08036080486169851</v>
       </c>
       <c r="D47">
-        <v>-0.008171296819545648</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01660503412336676</v>
+      </c>
+      <c r="E47">
+        <v>0.05425383709254455</v>
+      </c>
+      <c r="F47">
+        <v>0.07902785708999158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.016800759760156</v>
+        <v>-0.01541321183764394</v>
       </c>
       <c r="C48">
-        <v>-0.01184446519525707</v>
+        <v>0.01776191922434616</v>
       </c>
       <c r="D48">
-        <v>-0.007352404930039752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0191326130179413</v>
+      </c>
+      <c r="E48">
+        <v>0.04465086639707767</v>
+      </c>
+      <c r="F48">
+        <v>0.09776976770319984</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08502558916315377</v>
+        <v>-0.07229026028246312</v>
       </c>
       <c r="C50">
-        <v>-0.07066306447607369</v>
+        <v>0.07065997204806665</v>
       </c>
       <c r="D50">
-        <v>-0.01928365874694422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005314709435234129</v>
+      </c>
+      <c r="E50">
+        <v>0.05148327988437676</v>
+      </c>
+      <c r="F50">
+        <v>0.07054881086561673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01054947089962876</v>
+        <v>-0.01000404043673273</v>
       </c>
       <c r="C51">
-        <v>-0.04511419157251364</v>
+        <v>0.03391781194526886</v>
       </c>
       <c r="D51">
-        <v>0.006516548496081501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.049460492130643</v>
+      </c>
+      <c r="E51">
+        <v>0.02097968915287265</v>
+      </c>
+      <c r="F51">
+        <v>0.08603625820690698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08225477609105597</v>
+        <v>-0.09227162006698131</v>
       </c>
       <c r="C53">
-        <v>-0.07394111892006135</v>
+        <v>0.08785608413824986</v>
       </c>
       <c r="D53">
-        <v>-0.02626609554836738</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0384436972204938</v>
+      </c>
+      <c r="E53">
+        <v>0.05298719157054954</v>
+      </c>
+      <c r="F53">
+        <v>0.08805248597613045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03101045853926766</v>
+        <v>-0.02762746569340438</v>
       </c>
       <c r="C54">
-        <v>-0.02187675363273306</v>
+        <v>0.02690452589924216</v>
       </c>
       <c r="D54">
-        <v>0.000975683886721513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03259685722265333</v>
+      </c>
+      <c r="E54">
+        <v>0.03993741186917164</v>
+      </c>
+      <c r="F54">
+        <v>0.09810632421252267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07224801524459321</v>
+        <v>-0.08346854304225602</v>
       </c>
       <c r="C55">
-        <v>-0.06501230203097078</v>
+        <v>0.07172565866381837</v>
       </c>
       <c r="D55">
-        <v>-0.02969585153438243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04530112538667623</v>
+      </c>
+      <c r="E55">
+        <v>0.04417188045270198</v>
+      </c>
+      <c r="F55">
+        <v>0.06540427208902951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1482139456164427</v>
+        <v>-0.1447186899137276</v>
       </c>
       <c r="C56">
-        <v>-0.09359888985515467</v>
+        <v>0.1062730869471413</v>
       </c>
       <c r="D56">
-        <v>-0.03330145682233802</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04846750973700733</v>
+      </c>
+      <c r="E56">
+        <v>0.04739910223811594</v>
+      </c>
+      <c r="F56">
+        <v>0.0491105900392289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.00111604852447443</v>
+        <v>-0.0003571024219263817</v>
       </c>
       <c r="C57">
-        <v>-0.00302146541953463</v>
+        <v>0.001749246877191418</v>
       </c>
       <c r="D57">
-        <v>0.01827242800195379</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01596139117565911</v>
+      </c>
+      <c r="E57">
+        <v>0.007431858121303143</v>
+      </c>
+      <c r="F57">
+        <v>0.01015297304398871</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07197183636015742</v>
+        <v>-0.02774114762906877</v>
       </c>
       <c r="C58">
-        <v>-0.02137740493546084</v>
+        <v>0.04059226696653569</v>
       </c>
       <c r="D58">
-        <v>0.9351211345528694</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4915890766335716</v>
+      </c>
+      <c r="E58">
+        <v>0.6883057492294699</v>
+      </c>
+      <c r="F58">
+        <v>-0.4546048920946071</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1372228941107878</v>
+        <v>-0.1473919118998155</v>
       </c>
       <c r="C59">
-        <v>0.2046595022473141</v>
+        <v>-0.1865198017001384</v>
       </c>
       <c r="D59">
-        <v>0.01412574385034695</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03211837667884895</v>
+      </c>
+      <c r="E59">
+        <v>0.02568652002823389</v>
+      </c>
+      <c r="F59">
+        <v>0.02202092916000402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3118910978251048</v>
+        <v>-0.2830829115942434</v>
       </c>
       <c r="C60">
-        <v>-0.09601157017546702</v>
+        <v>0.09792377950934056</v>
       </c>
       <c r="D60">
-        <v>0.01067123714155956</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2029236859019435</v>
+      </c>
+      <c r="E60">
+        <v>-0.2748629804966233</v>
+      </c>
+      <c r="F60">
+        <v>-0.1122467190849031</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03790022204375544</v>
+        <v>-0.04024341896721247</v>
       </c>
       <c r="C61">
-        <v>-0.06466075981990192</v>
+        <v>0.06261551067827849</v>
       </c>
       <c r="D61">
-        <v>0.01083594752894067</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0473486155133504</v>
+      </c>
+      <c r="E61">
+        <v>0.02242728535018338</v>
+      </c>
+      <c r="F61">
+        <v>0.08406770992200067</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01374397907066965</v>
+        <v>-0.01459921236397527</v>
       </c>
       <c r="C63">
-        <v>-0.03544862214596404</v>
+        <v>0.03270142896360548</v>
       </c>
       <c r="D63">
-        <v>-0.0009516141629801793</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02353711057044821</v>
+      </c>
+      <c r="E63">
+        <v>0.03744538242492975</v>
+      </c>
+      <c r="F63">
+        <v>0.07718647143800397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.04985507116823647</v>
+        <v>-0.05471055222079479</v>
       </c>
       <c r="C64">
-        <v>-0.03581707425554763</v>
+        <v>0.05395252320469779</v>
       </c>
       <c r="D64">
-        <v>-0.009835595970269322</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.007177043317217815</v>
+      </c>
+      <c r="E64">
+        <v>0.0200094102750869</v>
+      </c>
+      <c r="F64">
+        <v>0.08583824124882214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09436960609379776</v>
+        <v>-0.06684426934901688</v>
       </c>
       <c r="C65">
-        <v>-0.03934395142829987</v>
+        <v>0.03780779888374265</v>
       </c>
       <c r="D65">
-        <v>0.04061012454786238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08691207801992124</v>
+      </c>
+      <c r="E65">
+        <v>0.03326010781357724</v>
+      </c>
+      <c r="F65">
+        <v>0.02391925583320357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06066398080914578</v>
+        <v>-0.05099738188299791</v>
       </c>
       <c r="C66">
-        <v>-0.1043187481834979</v>
+        <v>0.09123947320969125</v>
       </c>
       <c r="D66">
-        <v>0.03268250228306181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08064121039492762</v>
+      </c>
+      <c r="E66">
+        <v>0.02188115203471603</v>
+      </c>
+      <c r="F66">
+        <v>0.09421463310082126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05044639187022527</v>
+        <v>-0.04643572655316303</v>
       </c>
       <c r="C67">
-        <v>-0.03481947722510358</v>
+        <v>0.03087953199780428</v>
       </c>
       <c r="D67">
-        <v>-0.005217415937850412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01250489798398776</v>
+      </c>
+      <c r="E67">
+        <v>0.01588280083518425</v>
+      </c>
+      <c r="F67">
+        <v>0.05314690350368283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1178391671764883</v>
+        <v>-0.152656796521524</v>
       </c>
       <c r="C68">
-        <v>0.288345719329517</v>
+        <v>-0.2514934126107028</v>
       </c>
       <c r="D68">
-        <v>-0.003238349809033996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01673055909810896</v>
+      </c>
+      <c r="E68">
+        <v>0.0426171868768736</v>
+      </c>
+      <c r="F68">
+        <v>0.01983169285515487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08159654829443515</v>
+        <v>-0.08652144017525512</v>
       </c>
       <c r="C69">
-        <v>-0.06969191098384508</v>
+        <v>0.08655702446967214</v>
       </c>
       <c r="D69">
-        <v>-0.03417386963144724</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01070680022403546</v>
+      </c>
+      <c r="E69">
+        <v>0.03124899933817882</v>
+      </c>
+      <c r="F69">
+        <v>0.09810311304537926</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1201370273754535</v>
+        <v>-0.1446737723123661</v>
       </c>
       <c r="C71">
-        <v>0.248944436169641</v>
+        <v>-0.2322326551915545</v>
       </c>
       <c r="D71">
-        <v>0.02358330103391997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01613611782723872</v>
+      </c>
+      <c r="E71">
+        <v>0.06093865359498983</v>
+      </c>
+      <c r="F71">
+        <v>0.05614132631072243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08401720809134794</v>
+        <v>-0.0954923811996444</v>
       </c>
       <c r="C72">
-        <v>-0.05023968418885182</v>
+        <v>0.05718063497276912</v>
       </c>
       <c r="D72">
-        <v>-0.0117357507387714</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0193815263810366</v>
+      </c>
+      <c r="E72">
+        <v>0.00941595326740036</v>
+      </c>
+      <c r="F72">
+        <v>0.08137671195967862</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4382278121319497</v>
+        <v>-0.3472321790547914</v>
       </c>
       <c r="C73">
-        <v>-0.06679211816472429</v>
+        <v>0.07872142082663633</v>
       </c>
       <c r="D73">
-        <v>0.09073114742125488</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4311768665409947</v>
+      </c>
+      <c r="E73">
+        <v>-0.4849849284808406</v>
+      </c>
+      <c r="F73">
+        <v>-0.293977413279767</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1108840859779748</v>
+        <v>-0.110120889550595</v>
       </c>
       <c r="C74">
-        <v>-0.1095828625166673</v>
+        <v>0.1014272775573827</v>
       </c>
       <c r="D74">
-        <v>-0.006560753263803788</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02910574320890004</v>
+      </c>
+      <c r="E74">
+        <v>0.06247050830089752</v>
+      </c>
+      <c r="F74">
+        <v>0.05484862445637211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2504773892759002</v>
+        <v>-0.2551084037973475</v>
       </c>
       <c r="C75">
-        <v>-0.1219404747857333</v>
+        <v>0.1386618527028221</v>
       </c>
       <c r="D75">
-        <v>-0.04856533751485242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1287174443830498</v>
+      </c>
+      <c r="E75">
+        <v>0.07358847475798898</v>
+      </c>
+      <c r="F75">
+        <v>0.01219134898149178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.112870591138273</v>
+        <v>-0.1276380274128627</v>
       </c>
       <c r="C76">
-        <v>-0.09466422939453779</v>
+        <v>0.1048659002493364</v>
       </c>
       <c r="D76">
-        <v>-0.02670931052999212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05890589032141808</v>
+      </c>
+      <c r="E76">
+        <v>0.0665945209741426</v>
+      </c>
+      <c r="F76">
+        <v>0.06720724374424265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07613504753057226</v>
+        <v>-0.0616164605528549</v>
       </c>
       <c r="C77">
-        <v>-0.05781783936890644</v>
+        <v>0.07003352247419754</v>
       </c>
       <c r="D77">
-        <v>0.05135898776837199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06538961751704779</v>
+      </c>
+      <c r="E77">
+        <v>0.06657127631029136</v>
+      </c>
+      <c r="F77">
+        <v>0.1181935017018827</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04468752187392461</v>
+        <v>-0.04317066390234338</v>
       </c>
       <c r="C78">
-        <v>-0.04405983100785952</v>
+        <v>0.05476551626995976</v>
       </c>
       <c r="D78">
-        <v>0.01594308821314662</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0732478297288164</v>
+      </c>
+      <c r="E78">
+        <v>0.02117222275158294</v>
+      </c>
+      <c r="F78">
+        <v>0.106508211826171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02406510723438576</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03867863848340472</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06030334503547146</v>
+      </c>
+      <c r="E79">
+        <v>0.05203943997088099</v>
+      </c>
+      <c r="F79">
+        <v>0.03811390036179906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04482170828619104</v>
+        <v>-0.03446465914045665</v>
       </c>
       <c r="C80">
-        <v>-0.05578293272266286</v>
+        <v>0.05486954025641718</v>
       </c>
       <c r="D80">
-        <v>0.02664263316058118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04777839005716483</v>
+      </c>
+      <c r="E80">
+        <v>0.009414017889897944</v>
+      </c>
+      <c r="F80">
+        <v>0.03421660463046</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1417874172164058</v>
+        <v>-0.1398017512383143</v>
       </c>
       <c r="C81">
-        <v>-0.07675110059326364</v>
+        <v>0.09809737791641937</v>
       </c>
       <c r="D81">
-        <v>-0.02342631083578749</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09447551751506775</v>
+      </c>
+      <c r="E81">
+        <v>0.08156433529180564</v>
+      </c>
+      <c r="F81">
+        <v>0.01969133933301508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1358582823309471</v>
+        <v>-0.1976588147219629</v>
       </c>
       <c r="C82">
-        <v>-0.05856109224404662</v>
+        <v>0.1384716026838269</v>
       </c>
       <c r="D82">
-        <v>-0.1173757571502785</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2256122291924925</v>
+      </c>
+      <c r="E82">
+        <v>0.02068201042838722</v>
+      </c>
+      <c r="F82">
+        <v>0.08498309808594115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02797200794419867</v>
+        <v>-0.02719885673017102</v>
       </c>
       <c r="C83">
-        <v>-0.02091987651412847</v>
+        <v>0.04033695870729719</v>
       </c>
       <c r="D83">
-        <v>0.01630968433777042</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03548481824876108</v>
+      </c>
+      <c r="E83">
+        <v>0.008955985135741223</v>
+      </c>
+      <c r="F83">
+        <v>0.04949813002948399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2268135005011919</v>
+        <v>-0.2041112337936948</v>
       </c>
       <c r="C85">
-        <v>-0.1115162943443876</v>
+        <v>0.1233412910500604</v>
       </c>
       <c r="D85">
-        <v>-0.09062312166220517</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1036405066746705</v>
+      </c>
+      <c r="E85">
+        <v>0.005256028784048811</v>
+      </c>
+      <c r="F85">
+        <v>-0.02458215818836403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.003674708112016079</v>
+        <v>-0.01152688247585598</v>
       </c>
       <c r="C86">
-        <v>-0.02482182254610294</v>
+        <v>0.0304106170444879</v>
       </c>
       <c r="D86">
-        <v>0.02614087054960169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07149078173633842</v>
+      </c>
+      <c r="E86">
+        <v>0.04208833870772873</v>
+      </c>
+      <c r="F86">
+        <v>0.140028160312626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01806965095566484</v>
+        <v>-0.0201666323976344</v>
       </c>
       <c r="C87">
-        <v>-0.01605344936673615</v>
+        <v>0.02198531715894581</v>
       </c>
       <c r="D87">
-        <v>0.09052778066932417</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09277478547866688</v>
+      </c>
+      <c r="E87">
+        <v>0.08690040857682069</v>
+      </c>
+      <c r="F87">
+        <v>0.09557604044409421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.105030417911521</v>
+        <v>-0.09130926674473418</v>
       </c>
       <c r="C88">
-        <v>-0.06970157289192766</v>
+        <v>0.06312724789317574</v>
       </c>
       <c r="D88">
-        <v>-0.01477530481671152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01214683512416435</v>
+      </c>
+      <c r="E88">
+        <v>0.03532762283815657</v>
+      </c>
+      <c r="F88">
+        <v>0.07135632123957089</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1854004383227619</v>
+        <v>-0.2258121024035082</v>
       </c>
       <c r="C89">
-        <v>0.3709133348742862</v>
+        <v>-0.3776086489412929</v>
       </c>
       <c r="D89">
-        <v>-0.02655001294001534</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01397777495816743</v>
+      </c>
+      <c r="E89">
+        <v>0.04024551833526083</v>
+      </c>
+      <c r="F89">
+        <v>0.1006823047972536</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1774238608235564</v>
+        <v>-0.2038295824994646</v>
       </c>
       <c r="C90">
-        <v>0.3460800078027781</v>
+        <v>-0.3141081623038205</v>
       </c>
       <c r="D90">
-        <v>-0.01104446666366166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01126619042380014</v>
+      </c>
+      <c r="E90">
+        <v>0.06680042460550493</v>
+      </c>
+      <c r="F90">
+        <v>0.05001851829571189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1937098881337918</v>
+        <v>-0.1864474630256386</v>
       </c>
       <c r="C91">
-        <v>-0.1175884178078906</v>
+        <v>0.1412980915262703</v>
       </c>
       <c r="D91">
-        <v>-0.05077162878291498</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1047553080081697</v>
+      </c>
+      <c r="E91">
+        <v>0.06556171773235181</v>
+      </c>
+      <c r="F91">
+        <v>0.03455949794186437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1721206878002633</v>
+        <v>-0.1833907364203303</v>
       </c>
       <c r="C92">
-        <v>0.2916373771129536</v>
+        <v>-0.2794968895340246</v>
       </c>
       <c r="D92">
-        <v>-0.01378519723310545</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003654860524561019</v>
+      </c>
+      <c r="E92">
+        <v>0.07131263237019296</v>
+      </c>
+      <c r="F92">
+        <v>0.07520598497151676</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.204607245660939</v>
+        <v>-0.2283575668135477</v>
       </c>
       <c r="C93">
-        <v>0.3343094531421197</v>
+        <v>-0.3189035103288468</v>
       </c>
       <c r="D93">
-        <v>-0.004143028436633485</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001637399530675288</v>
+      </c>
+      <c r="E93">
+        <v>0.05189830876388517</v>
+      </c>
+      <c r="F93">
+        <v>0.04647800391826407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3143360088672623</v>
+        <v>-0.3417319759073084</v>
       </c>
       <c r="C94">
-        <v>-0.1733791416813749</v>
+        <v>0.1894905755373212</v>
       </c>
       <c r="D94">
-        <v>-0.1911401611664713</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4722314204545997</v>
+      </c>
+      <c r="E94">
+        <v>0.1525750065552279</v>
+      </c>
+      <c r="F94">
+        <v>-0.4336223299496059</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09049043533351649</v>
+        <v>-0.08263466304351229</v>
       </c>
       <c r="C95">
-        <v>-0.06597959863523853</v>
+        <v>0.07059025916324109</v>
       </c>
       <c r="D95">
-        <v>0.03859208902414843</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1568833390347912</v>
+      </c>
+      <c r="E95">
+        <v>-0.1278404112012591</v>
+      </c>
+      <c r="F95">
+        <v>0.1804297371779041</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1938169794736744</v>
+        <v>-0.188169529996769</v>
       </c>
       <c r="C98">
-        <v>-0.01614112477441683</v>
+        <v>0.0409978700470962</v>
       </c>
       <c r="D98">
-        <v>0.04964215913800777</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1767324064457025</v>
+      </c>
+      <c r="E98">
+        <v>-0.1573449821931591</v>
+      </c>
+      <c r="F98">
+        <v>-0.0432993603728018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.007414946028339225</v>
+        <v>-0.005985008977414284</v>
       </c>
       <c r="C101">
-        <v>-0.02545950778356499</v>
+        <v>0.02570618275263318</v>
       </c>
       <c r="D101">
-        <v>-0.01622746590798668</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02210901293547261</v>
+      </c>
+      <c r="E101">
+        <v>0.0284735180399384</v>
+      </c>
+      <c r="F101">
+        <v>0.091303800203206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1229716874719832</v>
+        <v>-0.1240465001299057</v>
       </c>
       <c r="C102">
-        <v>-0.07499110476797763</v>
+        <v>0.09988636865773388</v>
       </c>
       <c r="D102">
-        <v>-0.03030952145721083</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05032380658283284</v>
+      </c>
+      <c r="E102">
+        <v>-0.006840363990460791</v>
+      </c>
+      <c r="F102">
+        <v>0.03787274211841916</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
